--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -462,57 +462,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PEREZ VEGA ANA YSABEL</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>PEREZ VEGA ANA YSABEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHERO JUAREZ ANYELA TATIANA</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>CHERO JUAREZ ANYELA TATIANA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PANTA MONZON SHIRLEY MARIBEL</t>
+          <t>PEREZ VEGA ANA YSABEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -462,87 +462,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PEREZ VEGA ANA YSABEL</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>PANTA MONZON SHIRLEY MARIBEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHERO JUAREZ ANYELA TATIANA</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>CHERO JUAREZ ANYELA TATIANA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -462,77 +462,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>PANTA MONZON SHIRLEY MARIBEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PANTA MONZON SHIRLEY MARIBEL</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PEREZ VEGA ANA YSABEL</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -462,96 +462,116 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>PEREZ VEGA ANA YSABEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PANTA MONZON SHIRLEY MARIBEL</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>PANTA MONZON SHIRLEY MARIBEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>MORENO PALACIOS DAMARIS VANESA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHERO JUAREZ ANYELA TATIANA</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>CHERO JUAREZ ANYELA TATIANA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>71050834</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MORETO ESPINOZA JUAN ALBERTO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -448,101 +448,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZAPATA ZETA ROSA ARACELI</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PEREZ VEGA ANA YSABEL</t>
+          <t>ZAPATA ZETA ROSA ARACELI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>PEREZ VEGA ANA YSABEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PANTA MONZON SHIRLEY MARIBEL</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>PANTA MONZON SHIRLEY MARIBEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MORENO PALACIOS DAMARIS VANESA</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>MORENO PALACIOS DAMARIS VANESA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>PEREZ VEGA ANA YSABEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZAPATA ZETA ROSA ARACELI</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PEREZ VEGA ANA YSABEL</t>
+          <t>ZAPATA ZETA ROSA ARACELI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIÑO GUERRERO ANYELA MELINA</t>
+          <t>PANTA MONZON SHIRLEY MARIBEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANTA MONZON SHIRLEY MARIBEL</t>
+          <t>NIÑO GUERRERO ANYELA MELINA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">

--- a/data/data_monitoreo_la_peñita.xlsx
+++ b/data/data_monitoreo_la_peñita.xlsx
@@ -452,37 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GARAVITO LEON IVONNE LISSETH</t>
+          <t>ZAPATA ZETA ROSA ARACELI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
+          <t>GARAVITO LEON IVONNE LISSETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAPATA ZETA ROSA ARACELI</t>
+          <t>TIMOTEO BAYONA SHARYN LISSETH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CASTRO JUAREZ MARIA ISABEL</t>
+          <t>VALLE SILVA SUTMMER ORFELINDA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VALLE SILVA SUTMMER ORFELINDA</t>
+          <t>TIZON NUÑEZ FRESIA YAMILI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TIZON NUÑEZ FRESIA YAMILI</t>
+          <t>CASTRO JUAREZ MARIA ISABEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
